--- a/outputs-HGR-r202/g__Pauljensenia.xlsx
+++ b/outputs-HGR-r202/g__Pauljensenia.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>s__Pauljensenia sp900556405</t>
+          <t>s__Pauljensenia sp900556405(reject)</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>s__Pauljensenia sp900556405</t>
+          <t>s__Pauljensenia sp900556405(reject)</t>
         </is>
       </c>
     </row>
